--- a/data/trans_camb/P23_DUKE_AF_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AF_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,35</t>
+          <t>-8,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,37</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>50,6</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>51,62</t>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-6,16</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,33</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,08</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,08</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,02</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-5,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 1,16</t>
+          <t>-19,27; 7,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 1,74</t>
+          <t>-22,17; 4,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,53; 62,88</t>
+          <t>-16,12; 10,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 7,62</t>
+          <t>-2,67; 24,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 7,35</t>
+          <t>-18,31; 8,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,86; 60,81</t>
+          <t>-17,33; 4,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 1,77</t>
+          <t>-14,46; 7,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 1,41</t>
+          <t>-14,17; 9,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,99; 59,08</t>
+          <t>-11,19; 13,61</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-19,21; 6,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-14,74; 1,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 2,2</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-12,3; 5,87</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 16,46</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 3,43</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-39,62%</t>
+          <t>-10,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-41,91%</t>
+          <t>-14,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>298,64%</t>
+          <t>-6,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,32%</t>
+          <t>-7,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>421,2%</t>
+          <t>-11,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-24,89%</t>
+          <t>-6,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-26,27%</t>
+          <t>-4,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>347,11%</t>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-9,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-10,92%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-10,48%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-5,3%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-8,36%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,45; 8,71</t>
+          <t>-29,29; 15,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,7; 19,07</t>
+          <t>-34,01; 9,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>167,35; 526,73</t>
+          <t>-24,92; 19,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 107,24</t>
+          <t>-4,78; 52,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 97,98</t>
+          <t>-23,96; 13,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>219,0; 788,37</t>
+          <t>-26,79; 8,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 17,03</t>
+          <t>-23,17; 13,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 14,76</t>
+          <t>-23,01; 17,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>230,77; 520,34</t>
+          <t>-18,14; 27,86</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-28,21; 11,15</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-23,93; 3,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-24,47; 4,14</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-19,96; 10,37</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 32,51</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-21,07; 5,92</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,66</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>53,38</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,53</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,98</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,42</t>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 7,4</t>
+          <t>-16,97; 9,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 26,09</t>
+          <t>-17,7; 7,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,17; 64,55</t>
+          <t>-4,97; 22,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -0,09</t>
+          <t>-15,08; 9,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 3,67</t>
+          <t>-7,93; 21,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,64; 56,81</t>
+          <t>-12,91; 6,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 1,23</t>
+          <t>-14,82; 5,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 11,89</t>
+          <t>-15,05; 5,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,11; 57,93</t>
+          <t>-6,32; 14,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 11,98</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 4,05</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; 3,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 10,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 9,23</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 13,59</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,47%</t>
+          <t>-6,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>-9,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>399,53%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-37,12%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,97%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>204,48%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-28,44%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>281,7%</t>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,47%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,03; 96,23</t>
+          <t>-22,47; 15,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 263,8</t>
+          <t>-23,82; 12,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>153,91; 797,81</t>
+          <t>-6,77; 36,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,18; 1,68</t>
+          <t>-19,2; 13,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 22,8</t>
+          <t>-10,46; 36,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>120,29; 328,59</t>
+          <t>-17,06; 9,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 9,9</t>
+          <t>-18,9; 8,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 82,07</t>
+          <t>-19,36; 8,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>171,36; 412,12</t>
+          <t>-8,39; 23,9</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-9,82; 18,61</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-15,24; 6,0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-17,42; 5,37</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; 15,95</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-9,92; 13,61</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 22,16</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,97</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>52,33</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>43,13</t>
+          <t>9,02</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,12; 0,26</t>
+          <t>-12,09; 7,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 6,39</t>
+          <t>-2,9; 15,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,83; 45,42</t>
+          <t>-13,65; 8,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 5,12</t>
+          <t>-5,28; 14,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 7,11</t>
+          <t>-1,23; 18,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,94; 59,1</t>
+          <t>-5,7; 9,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 0,15</t>
+          <t>-4,58; 10,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 4,03</t>
+          <t>-6,83; 8,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,36; 49,86</t>
+          <t>0,86; 16,94</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 13,71</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 5,93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 9,84</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,29; 6,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 13,14</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 13,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,94%</t>
+          <t>-3,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,05%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>110,79%</t>
+          <t>-4,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>267,91%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,07%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,06%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>173,1%</t>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-0,93%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,49; 5,9</t>
+          <t>-15,83; 11,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 29,22</t>
+          <t>-3,7; 23,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,38; 198,4</t>
+          <t>-18,03; 12,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 33,13</t>
+          <t>-6,82; 22,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 44,29</t>
+          <t>-1,67; 31,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>182,76; 388,02</t>
+          <t>-7,96; 15,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,2; 1,55</t>
+          <t>-6,39; 16,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 19,66</t>
+          <t>-9,64; 13,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>110,23; 237,04</t>
+          <t>1,22; 26,22</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 20,45</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 9,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 15,13</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; 9,94</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 20,26</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 20,54</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>64,48</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,3</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>57,35</t>
+          <t>-10,04</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-7,12</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-4,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 12,69</t>
+          <t>-6,41; 10,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 8,01</t>
+          <t>-6,31; 9,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>55,77; 71,4</t>
+          <t>-2,87; 14,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 8,05</t>
+          <t>-2,99; 12,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 12,25</t>
+          <t>-10,3; 5,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,72; 56,97</t>
+          <t>-0,52; 13,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 8,39</t>
+          <t>-3,56; 10,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 7,94</t>
+          <t>2,62; 16,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,37; 63,0</t>
+          <t>-17,69; -3,35</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-15,37; 0,66</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 9,69</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 7,79</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 13,11</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 3,36</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-10,33; 1,26</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>365,94%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>-2,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>194,34%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>261,4%</t>
+          <t>-12,7%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-9,35%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,05%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-5,75%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 89,69</t>
+          <t>-8,67; 15,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 58,17</t>
+          <t>-8,47; 15,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>233,41; 542,07</t>
+          <t>-4,07; 22,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 37,4</t>
+          <t>-3,83; 18,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 54,31</t>
+          <t>-11,82; 6,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>133,72; 262,95</t>
+          <t>-0,72; 20,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 43,79</t>
+          <t>-4,92; 16,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 41,0</t>
+          <t>3,76; 25,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>200,15; 331,39</t>
+          <t>-21,71; -4,33</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 0,43</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 14,81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 11,44</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,64; 19,77</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-9,42; 4,52</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 1,63</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53,0</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>52,05</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>52,49</t>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 9,23</t>
+          <t>-11,11; 7,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 5,5</t>
+          <t>-6,83; 13,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>42,83; 61,46</t>
+          <t>-4,38; 17,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 11,43</t>
+          <t>0,71; 19,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 13,21</t>
+          <t>-2,6; 16,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>43,68; 60,73</t>
+          <t>-15,96; 3,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 8,35</t>
+          <t>-7,33; 11,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 7,14</t>
+          <t>-12,19; 8,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>46,62; 59,2</t>
+          <t>-10,39; 10,84</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 4,92</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-11,46; 2,78</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 9,45</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 9,09</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 11,5</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 8,0</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>-3,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-13,48%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>317,46%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>305,87%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>311,27%</t>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-6,9%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 70,72</t>
+          <t>-16,81; 13,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,5; 40,71</t>
+          <t>-10,24; 24,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>198,53; 491,0</t>
+          <t>-6,98; 29,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 85,09</t>
+          <t>0,74; 31,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 98,22</t>
+          <t>-3,44; 27,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>206,9; 490,07</t>
+          <t>-22,62; 5,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 57,23</t>
+          <t>-10,35; 19,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 51,96</t>
+          <t>-17,58; 14,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>238,41; 433,04</t>
+          <t>-14,23; 18,31</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-18,81; 7,5</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-16,63; 4,51</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 15,37</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 15,01</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 18,45</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 12,29</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-7,79</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>30,55</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>32,76</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>31,86</t>
+          <t>9,08</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>8,41</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>9,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 4,47</t>
+          <t>-22,21; 4,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 2,14</t>
+          <t>-7,88; 18,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>15,24; 43,21</t>
+          <t>-7,21; 19,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -2,46</t>
+          <t>-10,67; 15,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 19,65</t>
+          <t>-2,88; 24,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,04; 44,73</t>
+          <t>-7,79; 12,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-15,8; -2,56</t>
+          <t>-6,57; 15,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 7,23</t>
+          <t>-11,31; 13,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,66; 41,15</t>
+          <t>-3,47; 22,25</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 21,57</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-9,53; 6,2</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,03; 13,86</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 12,02</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-3,56; 15,11</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 20,34</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-26,51%</t>
+          <t>-14,54%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-33,94%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>133,03%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-47,27%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>158,91%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-38,71%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-16,02%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>147,64%</t>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-4,07%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>18,67%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-61,72; 28,39</t>
+          <t>-34,99; 7,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-63,71; 15,83</t>
+          <t>-12,36; 36,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>45,79; 247,17</t>
+          <t>-11,13; 39,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-67,76; -13,2</t>
+          <t>-15,54; 27,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 115,0</t>
+          <t>-4,48; 54,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>72,27; 272,76</t>
+          <t>-13,99; 27,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-59,94; -13,69</t>
+          <t>-11,83; 32,55</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-43,84; 43,06</t>
+          <t>-20,8; 27,66</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>89,64; 228,52</t>
+          <t>-5,4; 50,5</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 49,14</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-16,65; 12,25</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 28,47</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 24,19</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 28,74</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 43,46</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>48,4</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>47,11</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>47,76</t>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 0,26</t>
+          <t>-7,79; 1,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,68</t>
+          <t>-4,81; 4,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>43,06; 52,98</t>
+          <t>-1,84; 7,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 0,33</t>
+          <t>-0,09; 9,21</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,9</t>
+          <t>-0,48; 8,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>43,15; 50,95</t>
+          <t>-4,27; 3,27</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -0,75</t>
+          <t>-2,75; 4,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,5</t>
+          <t>-2,53; 6,02</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>44,53; 50,65</t>
+          <t>-2,14; 6,25</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 4,62</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 1,15</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 3,16</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 5,34</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 6,44</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 5,39</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-18,07%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>239,67%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-12,64%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>234,78%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-15,24%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>237,25%</t>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 1,44</t>
+          <t>-11,51; 2,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 15,07</t>
+          <t>-7,17; 7,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>183,39; 303,69</t>
+          <t>-2,73; 12,3</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 1,85</t>
+          <t>-0,09; 14,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 27,06</t>
+          <t>-0,69; 13,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>198,04; 277,87</t>
+          <t>-6,56; 5,23</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-26,66; -4,05</t>
+          <t>-4,17; 7,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 13,53</t>
+          <t>-3,75; 9,83</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>199,63; 271,49</t>
+          <t>-3,23; 9,87</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 7,23</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 1,84</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 4,98</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 8,44</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 9,88</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 8,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
